--- a/MartialArtsCurriculum/bin/Debug/GradingListTemplate.xlsx
+++ b/MartialArtsCurriculum/bin/Debug/GradingListTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>First Name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Current Rank</t>
   </si>
   <si>
-    <t>Belt Attempting</t>
-  </si>
-  <si>
     <t>Daniel Lima</t>
   </si>
   <si>
@@ -80,7 +77,19 @@
     <t>Terra</t>
   </si>
   <si>
-    <t>Black Belt</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Current Level</t>
+  </si>
+  <si>
+    <t>Rank Attempting</t>
+  </si>
+  <si>
+    <t>White Belt - 2nd Degree</t>
+  </si>
+  <si>
+    <t>Adults BJJ</t>
   </si>
 </sst>
 </file>
@@ -441,21 +450,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3376AD1-0487-430A-A6EE-78C3E916D9D1}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,13 +475,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -480,64 +495,79 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
